--- a/biology/Zoologie/Hydrotaea_maculipennis/Hydrotaea_maculipennis.xlsx
+++ b/biology/Zoologie/Hydrotaea_maculipennis/Hydrotaea_maculipennis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'insecte Hydrotaea maculipennis est une espèce fossile de diptères du genre Hydrotaea, de la famille des Muscidae.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hydrotaea maculipennis est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse [1],[2]. 
-Fossiles
-L'holotype A.1020, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection personnelle de Nicolas Théobald[1].
-Étymologie
-L'épithète spécifique maculipennis signifie en latin « stylo ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hydrotaea maculipennis est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse ,. 
 </t>
         </is>
       </c>
@@ -543,18 +553,168 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype A.1020, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection personnelle de Nicolas Théobald.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hydrotaea_maculipennis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrotaea_maculipennis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique maculipennis signifie en latin « stylo ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hydrotaea_maculipennis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrotaea_maculipennis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Insecte noirâtre, ailes enfumées, avec taches foncées. Tête large, transversale ; deux gros yeux à facettes, contigus, débordent sur la face ventrale ; poils fins et grosses soies sur les côtés et à l'arrière ; antennes avec arista filiforme. Thorax noir, porte des poils fins, ainsi qu'un grand nombre de soies ou macrotriches. Pattes velues ; cuisses portant des soies ; tibia II avec une soie interne et deux soies terminales, protarse III (Ier article du tarse) avec deux à trois rangées de grosses soies, surtout au delà du milieu, deux soies terminales. Ailes enfumées avec taches brunes ; 1 tache stigmale vers le milieu du bord antérieur de l'aile, 1 tache en croissant vers l'extrémité, 1 petite tache très fine au sommet antérieur et extérieur de la cellule discoïdale, la nervure discoïdale est légèrement ondulée ; C avec macrotriches visibles, microtriches entre les cellules. Abdomen noir, arrondi, velu, soies à l'extrémité et sur les bords. »[1].
-Dimensions
-La longueur totale est de 7,5 mm ; la tête a une longueur de 1,75 mm et une largeur de 1,75 mm ; le thorax a une longueur de 3 mm et une largeur de 2,75 mm ; l'abdomen a une longueur de 2,75 mm et une largeur de 2,75 mm ; l'aile a une longueur de 7,25 mm et une largeur de 2,75 mm[1].
-Affinités
-Par la nervation de l'aile et la structure de la tête, l'insecte appartient aux Anthomyiidés, Nicolas Théobald l'a rapproché du genre Hydrotaea, sans être totalement affirmatif[1].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte noirâtre, ailes enfumées, avec taches foncées. Tête large, transversale ; deux gros yeux à facettes, contigus, débordent sur la face ventrale ; poils fins et grosses soies sur les côtés et à l'arrière ; antennes avec arista filiforme. Thorax noir, porte des poils fins, ainsi qu'un grand nombre de soies ou macrotriches. Pattes velues ; cuisses portant des soies ; tibia II avec une soie interne et deux soies terminales, protarse III (Ier article du tarse) avec deux à trois rangées de grosses soies, surtout au delà du milieu, deux soies terminales. Ailes enfumées avec taches brunes ; 1 tache stigmale vers le milieu du bord antérieur de l'aile, 1 tache en croissant vers l'extrémité, 1 petite tache très fine au sommet antérieur et extérieur de la cellule discoïdale, la nervure discoïdale est légèrement ondulée ; C avec macrotriches visibles, microtriches entre les cellules. Abdomen noir, arrondi, velu, soies à l'extrémité et sur les bords. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hydrotaea_maculipennis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrotaea_maculipennis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 7,5 mm ; la tête a une longueur de 1,75 mm et une largeur de 1,75 mm ; le thorax a une longueur de 3 mm et une largeur de 2,75 mm ; l'abdomen a une longueur de 2,75 mm et une largeur de 2,75 mm ; l'aile a une longueur de 7,25 mm et une largeur de 2,75 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hydrotaea_maculipennis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrotaea_maculipennis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par la nervation de l'aile et la structure de la tête, l'insecte appartient aux Anthomyiidés, Nicolas Théobald l'a rapproché du genre Hydrotaea, sans être totalement affirmatif.
 </t>
         </is>
       </c>
